--- a/Xiomi.xlsx
+++ b/Xiomi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Xiomi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42163BAE-16A7-4E06-B620-B22244981A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3F Model" sheetId="1" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="275">
   <si>
     <t>S.no</t>
   </si>
@@ -1755,18 +1761,24 @@
   <si>
     <t xml:space="preserve">1.TRC found SPK foam shifted during analysis after Re-install the Faom then device pass. </t>
   </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>Risk station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FA by TRC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1793,7 +1805,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1803,152 +1814,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1957,7 +1824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,234 +1836,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2299,255 +1980,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2632,17 +2071,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2665,90 +2095,171 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2759,7 +2270,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2787,159 +2298,45 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="001F0EC6"/>
+      <color rgb="FF1F0EC6"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3197,31 +2594,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="18.8571428571429" style="3" customWidth="1"/>
+    <col min="1" max="2" width="18.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66.7142857142857" style="4" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="52" style="5" customWidth="1"/>
-    <col min="6" max="6" width="73.2857142857143" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.7142857142857" style="6" customWidth="1"/>
-    <col min="8" max="8" width="49.7142857142857" style="7" customWidth="1"/>
-    <col min="9" max="16383" width="9.14285714285714" style="6"/>
+    <col min="6" max="6" width="73.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" style="7" customWidth="1"/>
+    <col min="9" max="16383" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.05" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3232,29 +2629,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="90" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="86.4">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -3273,14 +2670,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="21" spans="1:8">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="21">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -3299,14 +2696,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -3325,14 +2722,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="75" spans="1:8">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="72">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -3351,14 +2748,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -3377,14 +2774,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="21" spans="1:8">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="21">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -3403,14 +2800,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -3429,14 +2826,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="75" spans="1:8">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="57.6">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -3455,14 +2852,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="44" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="43.95" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -3481,14 +2878,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="57.6">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -3507,14 +2904,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -3533,14 +2930,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="57.6">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -3559,11 +2956,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="48" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="48" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -3585,11 +2982,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -3611,11 +3008,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="30" spans="1:8">
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="28.8">
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -3637,11 +3034,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="21" spans="1:8">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="21">
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -3663,11 +3060,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -3689,11 +3086,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -3715,11 +3112,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="21" spans="1:8">
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="21">
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -3741,11 +3138,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="19.05" customHeight="1">
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -3767,14 +3164,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -3793,14 +3190,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" ht="30" spans="1:8">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="28.8">
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -3819,14 +3216,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -3845,14 +3242,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -3871,14 +3268,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" ht="75" spans="1:8">
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="57.6">
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -3897,14 +3294,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="57.6">
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="18" t="s">
@@ -3923,14 +3320,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" ht="45" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="45" customHeight="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -3949,11 +3346,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" ht="30" spans="1:8">
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="21">
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -3975,11 +3372,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="57.6">
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -4001,11 +3398,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" ht="60" spans="1:8">
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="57.6">
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="24" t="s">
@@ -4027,11 +3424,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" ht="30" spans="1:8">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="28.8">
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -4053,14 +3450,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" ht="97" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="97.05" customHeight="1">
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="35" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -4079,14 +3476,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" ht="30" spans="1:8">
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="28.8">
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="35" t="s">
         <v>140</v>
       </c>
       <c r="D34" s="18" t="s">
@@ -4105,14 +3502,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" s="5" customFormat="1" ht="77" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="76.95" customHeight="1">
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="35" t="s">
         <v>140</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -4131,14 +3528,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="28.8">
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="35" t="s">
         <v>140</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -4157,14 +3554,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" ht="45" spans="1:8">
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="43.2">
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="35" t="s">
         <v>140</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -4185,31 +3582,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E36" workbookViewId="0">
+    <sheetView topLeftCell="E36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="18.8571428571429" style="3" customWidth="1"/>
+    <col min="1" max="2" width="18.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66.7142857142857" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.0571428571429" style="5" customWidth="1"/>
-    <col min="6" max="6" width="83.352380952381" style="6" customWidth="1"/>
-    <col min="7" max="7" width="34.6190476190476" style="4" customWidth="1"/>
-    <col min="8" max="8" width="41.7142857142857" style="7" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47" style="5" customWidth="1"/>
+    <col min="6" max="6" width="83.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.05" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +3630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="30" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.8">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4261,7 +3656,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:8">
+    <row r="3" spans="1:8" ht="43.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4287,7 +3682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" ht="75" spans="1:8">
+    <row r="4" spans="1:8" ht="57.6">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4313,7 +3708,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="1:8">
+    <row r="5" spans="1:8" ht="57.6">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4339,7 +3734,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4365,7 +3760,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="75" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -4391,7 +3786,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:8">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -4417,7 +3812,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="75" spans="1:8">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -4443,7 +3838,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -4469,7 +3864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -4495,7 +3890,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="75" spans="1:8">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="72">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -4521,7 +3916,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="75" spans="1:8">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="72">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -4547,7 +3942,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="30" spans="1:8">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="28.8">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -4573,7 +3968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -4599,7 +3994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -4625,7 +4020,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="56" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="55.95" customHeight="1">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -4651,7 +4046,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -4677,7 +4072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -4703,7 +4098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="30" spans="1:8">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="28.8">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -4729,7 +4124,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="75" spans="1:8">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -4755,7 +4150,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -4781,7 +4176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -4807,7 +4202,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -4833,7 +4228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="45" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -4859,7 +4254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="30" spans="1:8">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="28.8">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -4885,7 +4280,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="30" spans="1:8">
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="28.8">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -4911,7 +4306,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -4924,20 +4319,20 @@
       <c r="D28" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="39" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="34" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="34.049999999999997" customHeight="1">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -4947,22 +4342,22 @@
       <c r="C29" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="90" spans="1:8">
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="86.4">
       <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -4981,14 +4376,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:8">
+    <row r="31" spans="1:8" s="2" customFormat="1">
       <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -5007,14 +4402,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="30" spans="1:8">
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="28.8">
       <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="18" t="s">
@@ -5033,14 +4428,14 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="105" spans="1:8">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="100.8">
       <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -5059,14 +4454,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="18" t="s">
@@ -5085,10 +4480,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:8">
+    <row r="35" spans="1:8" s="2" customFormat="1">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -5107,10 +4502,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="105" spans="1:8">
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="100.8">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -5129,14 +4524,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -5155,14 +4550,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -5181,14 +4576,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -5207,14 +4602,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -5233,14 +4628,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="45" spans="1:8">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="43.2">
       <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -5259,14 +4654,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -5293,6 +4688,5 @@
     <mergeCell ref="H28:H29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Xiomi.xlsx
+++ b/Xiomi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Xiomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42163BAE-16A7-4E06-B620-B22244981A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79869CA2-5882-4A79-BEA4-92F16AF1F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="768" windowWidth="11724" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3F Model" sheetId="1" r:id="rId1"/>
@@ -2602,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/Xiomi.xlsx
+++ b/Xiomi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Xiomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79869CA2-5882-4A79-BEA4-92F16AF1F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF77F61-03F8-4DE5-80EC-524C37914EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="768" windowWidth="11724" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11244" yWindow="48" windowWidth="11724" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3F Model" sheetId="1" r:id="rId1"/>
@@ -1771,7 +1771,7 @@
     <t>Risk station</t>
   </si>
   <si>
-    <t xml:space="preserve">  FA by TRC</t>
+    <t>FA By TRC</t>
   </si>
 </sst>
 </file>
@@ -2603,7 +2603,7 @@
   <dimension ref="A1:XFC37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>

--- a/Xiomi.xlsx
+++ b/Xiomi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Xiomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF77F61-03F8-4DE5-80EC-524C37914EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567460F8-AFE2-4C1C-BD0E-44C42232D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11244" yWindow="48" windowWidth="11724" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="276">
   <si>
     <t>S.no</t>
   </si>
@@ -1772,6 +1772,9 @@
   </si>
   <si>
     <t>FA By TRC</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -2603,7 +2606,7 @@
   <dimension ref="A1:XFC37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2623,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
